--- a/agriculture 7.xlsx
+++ b/agriculture 7.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ODL website\Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289506D9-4390-47BF-8635-2894400BA3DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF01074-A887-431E-AC44-6141A29D0D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{64861086-6146-43F0-B608-2AFDB4D7D9FF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8F9FC388-624A-4C57-BDD9-F9563B40FF91}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet7" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet4" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,41 +25,253 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>2019p</t>
-  </si>
-  <si>
-    <t>2020p</t>
-  </si>
-  <si>
-    <t>Vietnam</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>China</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+  <si>
+    <t>2021-22</t>
+  </si>
+  <si>
+    <t>2020-21</t>
+  </si>
+  <si>
+    <t>2019-20</t>
+  </si>
+  <si>
+    <t>2018-19</t>
+  </si>
+  <si>
+    <t>2017-18</t>
+  </si>
+  <si>
+    <t>2016-17</t>
+  </si>
+  <si>
+    <t>2015-16</t>
+  </si>
+  <si>
+    <t>2014-15</t>
+  </si>
+  <si>
+    <t>2013-14</t>
+  </si>
+  <si>
+    <t>2012-13</t>
+  </si>
+  <si>
+    <t>2011-12</t>
+  </si>
+  <si>
+    <t>2010-11</t>
+  </si>
+  <si>
+    <t>2009-10</t>
+  </si>
+  <si>
+    <t>2008-09</t>
+  </si>
+  <si>
+    <t>2007-08</t>
+  </si>
+  <si>
+    <t>2006-07</t>
+  </si>
+  <si>
+    <t>2005-06</t>
+  </si>
+  <si>
+    <t>2004-05</t>
+  </si>
+  <si>
+    <t>2003-04</t>
+  </si>
+  <si>
+    <t>2002-03</t>
+  </si>
+  <si>
+    <t>2001-02</t>
+  </si>
+  <si>
+    <t>2000-01</t>
+  </si>
+  <si>
+    <t>1999-00</t>
+  </si>
+  <si>
+    <t>1998-99</t>
+  </si>
+  <si>
+    <t>1997-98</t>
+  </si>
+  <si>
+    <t>1996-97</t>
+  </si>
+  <si>
+    <t>1995-96</t>
+  </si>
+  <si>
+    <t>1994-95</t>
+  </si>
+  <si>
+    <t>1993-94</t>
+  </si>
+  <si>
+    <t>1992-93</t>
+  </si>
+  <si>
+    <t>1991-92</t>
+  </si>
+  <si>
+    <t>1990-91</t>
+  </si>
+  <si>
+    <t>1989-90</t>
+  </si>
+  <si>
+    <t>1988-89</t>
+  </si>
+  <si>
+    <t>1987-88</t>
+  </si>
+  <si>
+    <t>1986-87</t>
+  </si>
+  <si>
+    <t>1985-86</t>
+  </si>
+  <si>
+    <t>1984-85</t>
+  </si>
+  <si>
+    <t>1983-84</t>
+  </si>
+  <si>
+    <t>1982-83</t>
+  </si>
+  <si>
+    <t>1981-82</t>
+  </si>
+  <si>
+    <t>1980-81</t>
+  </si>
+  <si>
+    <t>1979-80</t>
+  </si>
+  <si>
+    <t>1978-79</t>
+  </si>
+  <si>
+    <t>1977-78</t>
+  </si>
+  <si>
+    <t>1976-77</t>
+  </si>
+  <si>
+    <t>1975-76</t>
+  </si>
+  <si>
+    <t>1974-75</t>
+  </si>
+  <si>
+    <t>1973-74</t>
+  </si>
+  <si>
+    <t>1972-73</t>
+  </si>
+  <si>
+    <t>1971-72</t>
+  </si>
+  <si>
+    <t>1970-71</t>
+  </si>
+  <si>
+    <t>1969-70</t>
+  </si>
+  <si>
+    <t>1968-69</t>
+  </si>
+  <si>
+    <t>1967-68</t>
+  </si>
+  <si>
+    <t>1966-67</t>
+  </si>
+  <si>
+    <t>1965-66</t>
+  </si>
+  <si>
+    <t>1964-65</t>
+  </si>
+  <si>
+    <t>1963-64</t>
+  </si>
+  <si>
+    <t>1962-63</t>
+  </si>
+  <si>
+    <t>1961-62</t>
+  </si>
+  <si>
+    <t>1960-61</t>
+  </si>
+  <si>
+    <t>1959-60</t>
+  </si>
+  <si>
+    <t>1958-59</t>
+  </si>
+  <si>
+    <t>1957-58</t>
+  </si>
+  <si>
+    <t>1956-57</t>
+  </si>
+  <si>
+    <t>1955-56</t>
+  </si>
+  <si>
+    <t>1954-55</t>
+  </si>
+  <si>
+    <t>1953-54</t>
+  </si>
+  <si>
+    <t>1952-53</t>
+  </si>
+  <si>
+    <t>1951-52</t>
+  </si>
+  <si>
+    <t>1950-51</t>
+  </si>
+  <si>
+    <t>Yield (kg./H)</t>
+  </si>
+  <si>
+    <t>Production (MT)</t>
+  </si>
+  <si>
+    <t>Area (Million Hectares)</t>
+  </si>
+  <si>
+    <t>All-India</t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -75,7 +287,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -83,12 +295,67 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,219 +669,1042 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0A4232-E0F2-4C68-908A-0C436DAE07C0}">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C2EB24A-B5D4-4D7F-B734-57BC27D04A7A}">
+  <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="J70" sqref="J70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="2">
+        <v>97.32</v>
+      </c>
+      <c r="C3" s="2">
+        <v>50.82</v>
+      </c>
+      <c r="D3" s="2">
+        <v>522.19000000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="1">
+        <v>96.96</v>
+      </c>
+      <c r="C4" s="1">
+        <v>51.99</v>
+      </c>
+      <c r="D4" s="1">
+        <v>536.20000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="1">
+        <v>102.09</v>
+      </c>
+      <c r="C5" s="1">
+        <v>59.2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>579.88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="1">
+        <v>109.07</v>
+      </c>
+      <c r="C6" s="1">
+        <v>69.819999999999993</v>
+      </c>
+      <c r="D6" s="1">
+        <v>640.14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="1">
+        <v>107.86</v>
+      </c>
+      <c r="C7" s="1">
+        <v>68.03</v>
+      </c>
+      <c r="D7" s="1">
+        <v>630.73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="1">
+        <v>110.56</v>
+      </c>
+      <c r="C8" s="1">
+        <v>66.849999999999994</v>
+      </c>
+      <c r="D8" s="1">
+        <v>604.65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="1">
+        <v>111.14</v>
+      </c>
+      <c r="C9" s="1">
+        <v>69.86</v>
+      </c>
+      <c r="D9" s="1">
+        <v>628.58000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="1">
+        <v>109.48</v>
+      </c>
+      <c r="C10" s="1">
+        <v>64.31</v>
+      </c>
+      <c r="D10" s="1">
+        <v>587.41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="1">
+        <v>114.76</v>
+      </c>
+      <c r="C11" s="1">
+        <v>77.14</v>
+      </c>
+      <c r="D11" s="1">
+        <v>672.19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="1">
+        <v>115.82</v>
+      </c>
+      <c r="C12" s="1">
+        <v>76.67</v>
+      </c>
+      <c r="D12" s="1">
+        <v>661.98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="1">
+        <v>115.58</v>
+      </c>
+      <c r="C13" s="1">
+        <v>82.02</v>
+      </c>
+      <c r="D13" s="1">
+        <v>709.64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="1">
+        <v>117.23</v>
+      </c>
+      <c r="C14" s="1">
+        <v>82.71</v>
+      </c>
+      <c r="D14" s="1">
+        <v>705.54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="1">
+        <v>117.84</v>
+      </c>
+      <c r="C15" s="1">
+        <v>80.150000000000006</v>
+      </c>
+      <c r="D15" s="1">
+        <v>680.16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="1">
+        <v>117.42</v>
+      </c>
+      <c r="C16" s="1">
+        <v>80.64</v>
+      </c>
+      <c r="D16" s="1">
+        <v>686.77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="1">
+        <v>118.11</v>
+      </c>
+      <c r="C17" s="1">
+        <v>89.36</v>
+      </c>
+      <c r="D17" s="1">
+        <v>756.58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="1">
+        <v>115.1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>72.349999999999994</v>
+      </c>
+      <c r="D18" s="1">
+        <v>628.58000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="1">
+        <v>115.3</v>
+      </c>
+      <c r="C19" s="1">
+        <v>74.23</v>
+      </c>
+      <c r="D19" s="1">
+        <v>643.79999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="1">
+        <v>121.42</v>
+      </c>
+      <c r="C20" s="1">
+        <v>95.05</v>
+      </c>
+      <c r="D20" s="1">
+        <v>782.82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="1">
+        <v>120.43</v>
+      </c>
+      <c r="C21" s="1">
+        <v>94.01</v>
+      </c>
+      <c r="D21" s="1">
+        <v>780.62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="1">
+        <v>123.57</v>
+      </c>
+      <c r="C22" s="1">
+        <v>99.5</v>
+      </c>
+      <c r="D22" s="1">
+        <v>805.21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="1">
+        <v>124.32</v>
+      </c>
+      <c r="C23" s="1">
+        <v>108.42</v>
+      </c>
+      <c r="D23" s="1">
+        <v>872.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="1">
+        <v>122.62</v>
+      </c>
+      <c r="C24" s="1">
+        <v>105.17</v>
+      </c>
+      <c r="D24" s="1">
+        <v>857.69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="1">
+        <v>119.28</v>
+      </c>
+      <c r="C25" s="1">
+        <v>97.03</v>
+      </c>
+      <c r="D25" s="1">
+        <v>813.46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="1">
+        <v>126.54</v>
+      </c>
+      <c r="C26" s="1">
+        <v>104.67</v>
+      </c>
+      <c r="D26" s="1">
+        <v>827.17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="1">
+        <v>121.08</v>
+      </c>
+      <c r="C27" s="1">
+        <v>99.83</v>
+      </c>
+      <c r="D27" s="1">
+        <v>824.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="1">
+        <v>128.18</v>
+      </c>
+      <c r="C28" s="1">
+        <v>121.03</v>
+      </c>
+      <c r="D28" s="1">
+        <v>944.22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="1">
+        <v>124.36</v>
+      </c>
+      <c r="C29" s="1">
+        <v>111.17</v>
+      </c>
+      <c r="D29" s="1">
+        <v>893.94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="1">
+        <v>127.52</v>
+      </c>
+      <c r="C30" s="1">
+        <v>126.41</v>
+      </c>
+      <c r="D30" s="1">
+        <v>991.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="1">
+        <v>129.01</v>
+      </c>
+      <c r="C31" s="1">
+        <v>131.9</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1022.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="1">
+        <v>125.21</v>
+      </c>
+      <c r="C32" s="1">
+        <v>109.7</v>
+      </c>
+      <c r="D32" s="1">
+        <v>876.13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="1">
+        <v>126.67</v>
+      </c>
+      <c r="C33" s="1">
+        <v>129.59</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1023.05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="1">
+        <v>129.13999999999999</v>
+      </c>
+      <c r="C34" s="1">
+        <v>133.30000000000001</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1032.21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="1">
+        <v>125.1</v>
+      </c>
+      <c r="C35" s="1">
+        <v>129.52000000000001</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1035.33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="1">
+        <v>131.16</v>
+      </c>
+      <c r="C36" s="1">
+        <v>152.37</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1161.71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="1">
+        <v>126.67</v>
+      </c>
+      <c r="C37" s="1">
+        <v>145.54</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1148.97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1">
+        <v>128.02000000000001</v>
+      </c>
+      <c r="C38" s="1">
+        <v>150.44</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1175.1300000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="1">
+        <v>127.2</v>
+      </c>
+      <c r="C39" s="1">
+        <v>143.41999999999999</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1127.52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="1">
+        <v>119.69</v>
+      </c>
+      <c r="C40" s="1">
+        <v>140.35</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1172.6099999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="1">
+        <v>127.67</v>
+      </c>
+      <c r="C41" s="1">
+        <v>169.92</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1330.93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" s="1">
+        <v>126.77</v>
+      </c>
+      <c r="C42" s="1">
+        <v>171.04</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1349.22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" s="1">
+        <v>127.84</v>
+      </c>
+      <c r="C43" s="1">
+        <v>176.39</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1379.77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="1">
+        <v>121.87</v>
+      </c>
+      <c r="C44" s="1">
+        <v>168.38</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1381.64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" s="1">
+        <v>123.15</v>
+      </c>
+      <c r="C45" s="1">
+        <v>179.48</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1457.41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" s="1">
+        <v>122.75</v>
+      </c>
+      <c r="C46" s="1">
+        <v>184.26</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1501.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="1">
+        <v>123.86</v>
+      </c>
+      <c r="C47" s="1">
+        <v>191.5</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1546.1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="1">
+        <v>121.01</v>
+      </c>
+      <c r="C48" s="1">
+        <v>180.42</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1490.95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" s="1">
+        <v>123.58</v>
+      </c>
+      <c r="C49" s="1">
+        <v>198.33</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" s="1">
+        <v>124.07</v>
+      </c>
+      <c r="C50" s="1">
+        <v>192.26</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1549.66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" s="1">
+        <v>125.17</v>
+      </c>
+      <c r="C51" s="1">
+        <v>203.61</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1626.67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52" s="1">
+        <v>123.1</v>
+      </c>
+      <c r="C52" s="1">
+        <v>209.8</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53" s="1">
+        <v>121.05</v>
+      </c>
+      <c r="C53" s="1">
+        <v>196.81</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" s="1">
+        <v>122.78</v>
+      </c>
+      <c r="C54" s="1">
+        <v>212.85</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" s="1">
+        <v>113.86</v>
+      </c>
+      <c r="C55" s="1">
+        <v>174.77</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" s="1">
+        <v>123.45</v>
+      </c>
+      <c r="C56" s="1">
+        <v>213.19</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B57" s="1">
+        <v>120.08</v>
+      </c>
+      <c r="C57" s="1">
+        <v>198.36</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" s="1">
+        <v>121.6</v>
+      </c>
+      <c r="C58" s="1">
+        <v>208.6</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59" s="1">
+        <v>123.71</v>
+      </c>
+      <c r="C59" s="1">
+        <v>217.28</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" s="1">
+        <v>124.07</v>
+      </c>
+      <c r="C60" s="1">
+        <v>230.78</v>
+      </c>
+      <c r="D60" s="1">
+        <v>1859.75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" s="1">
+        <v>122.83</v>
+      </c>
+      <c r="C61" s="1">
+        <v>234.47</v>
+      </c>
+      <c r="D61" s="1">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" s="1">
+        <v>121.33</v>
+      </c>
+      <c r="C62" s="1">
+        <v>218.11</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" s="1">
+        <v>126.67</v>
+      </c>
+      <c r="C63" s="1">
+        <v>244.49</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" s="1">
+        <v>124.76</v>
+      </c>
+      <c r="C64" s="1">
+        <v>259.29000000000002</v>
+      </c>
+      <c r="D64" s="1">
+        <v>2078.4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" s="1">
+        <v>120.78</v>
+      </c>
+      <c r="C65" s="1">
+        <v>257.12</v>
+      </c>
+      <c r="D65" s="1">
+        <v>2128.89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" s="1">
+        <v>125.05</v>
+      </c>
+      <c r="C66" s="1">
+        <v>265.05</v>
+      </c>
+      <c r="D66" s="1">
+        <v>2119.5500000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" s="1">
+        <v>124.3</v>
+      </c>
+      <c r="C67" s="1">
+        <v>252.03</v>
+      </c>
+      <c r="D67" s="1">
+        <v>2027.55</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="1">
+        <v>123.22</v>
+      </c>
+      <c r="C68" s="1">
+        <v>251.54</v>
+      </c>
+      <c r="D68" s="1">
+        <v>2041.44</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" s="1">
+        <v>129.22999999999999</v>
+      </c>
+      <c r="C69" s="1">
+        <v>275.11</v>
+      </c>
+      <c r="D69" s="1">
+        <v>2128.83</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" s="1">
+        <v>127.52</v>
+      </c>
+      <c r="C70" s="1">
+        <v>285.01</v>
+      </c>
+      <c r="D70" s="1">
+        <v>2234.9699999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" s="1">
+        <v>124.78</v>
+      </c>
+      <c r="C71" s="1">
+        <v>285.20999999999998</v>
+      </c>
+      <c r="D71" s="1">
+        <v>2285.77</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" s="1">
+        <v>126.99</v>
+      </c>
+      <c r="C72" s="1">
+        <v>297.5</v>
+      </c>
+      <c r="D72" s="1">
+        <v>2342.66</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1">
+        <v>310.74</v>
+      </c>
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>2013</v>
-      </c>
-      <c r="C1">
-        <v>2014</v>
-      </c>
-      <c r="D1">
-        <v>2015</v>
-      </c>
-      <c r="E1">
-        <v>2016</v>
-      </c>
-      <c r="F1">
-        <v>2017</v>
-      </c>
-      <c r="G1">
-        <v>2018</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>1728</v>
-      </c>
-      <c r="C2">
-        <v>1696</v>
-      </c>
-      <c r="D2">
-        <v>1676</v>
-      </c>
-      <c r="E2">
-        <v>1666</v>
-      </c>
-      <c r="F2">
-        <v>1676</v>
-      </c>
-      <c r="G2">
-        <v>1660</v>
-      </c>
-      <c r="H2">
-        <v>1669</v>
-      </c>
-      <c r="I2">
-        <v>1682</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>1499</v>
-      </c>
-      <c r="C3">
-        <v>1488</v>
-      </c>
-      <c r="D3">
-        <v>1517</v>
-      </c>
-      <c r="E3">
-        <v>1471</v>
-      </c>
-      <c r="F3">
-        <v>1449</v>
-      </c>
-      <c r="G3">
-        <v>1553</v>
-      </c>
-      <c r="H3">
-        <v>1483</v>
-      </c>
-      <c r="I3">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>1400</v>
-      </c>
-      <c r="C4">
-        <v>1370</v>
-      </c>
-      <c r="D4">
-        <v>1410</v>
-      </c>
-      <c r="E4">
-        <v>1400</v>
-      </c>
-      <c r="F4">
-        <v>1450</v>
-      </c>
-      <c r="G4">
-        <v>1430</v>
-      </c>
-      <c r="H4">
-        <v>1460</v>
-      </c>
-      <c r="I4">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>1675</v>
-      </c>
-      <c r="C5">
-        <v>1576</v>
-      </c>
-      <c r="D5">
-        <v>1471</v>
-      </c>
-      <c r="E5">
-        <v>1402</v>
-      </c>
-      <c r="F5">
-        <v>1498</v>
-      </c>
-      <c r="G5">
-        <v>1473</v>
-      </c>
-      <c r="H5">
-        <v>1439</v>
-      </c>
-      <c r="I5">
-        <v>1381</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>1082</v>
-      </c>
-      <c r="C6">
-        <v>1052</v>
-      </c>
-      <c r="D6">
-        <v>1036</v>
-      </c>
-      <c r="E6">
-        <v>1104</v>
-      </c>
-      <c r="F6">
-        <v>1205</v>
-      </c>
-      <c r="G6">
-        <v>1161</v>
-      </c>
-      <c r="H6">
-        <v>1025</v>
-      </c>
-      <c r="I6">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>1261</v>
-      </c>
-      <c r="C7">
-        <v>1208</v>
-      </c>
-      <c r="D7">
-        <v>1117</v>
-      </c>
-      <c r="E7">
-        <v>1075</v>
-      </c>
-      <c r="F7">
-        <v>1073</v>
-      </c>
-      <c r="G7">
-        <v>1070</v>
-      </c>
-      <c r="H7">
-        <v>1055</v>
-      </c>
-      <c r="I7">
-        <v>930</v>
-      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1">
+        <v>314.51</v>
+      </c>
+      <c r="D74" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>